--- a/Desafio-Digital-2023.xlsx
+++ b/Desafio-Digital-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Área de Trabalho\atividade-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA9002F-DE14-4696-BB1F-3EEF5F7516A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B086A4-82BE-4296-BD56-B36F4970C717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>iPHONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">até 2.100.00 = 5%, de 2100.000 a 2.400.000 = 12%  e a partir de 2400.000,01 = 17% </t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1439,7 @@
   </sheetPr>
   <dimension ref="B2:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D56"/>
     </sheetView>
   </sheetViews>
@@ -1638,8 +1641,8 @@
   </sheetPr>
   <dimension ref="A1:Y900"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2533,7 +2536,9 @@
       <c r="J20" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
